--- a/registros-floracao-frutificação-campus-unb-zero-um.xlsx
+++ b/registros-floracao-frutificação-campus-unb-zero-um.xlsx
@@ -777,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="6">
         <v>0.0</v>
